--- a/explication_BI_PDU.xlsx
+++ b/explication_BI_PDU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="920" windowWidth="25540" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="3260" yWindow="720" windowWidth="25540" windowHeight="15840" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="БИ-1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
   <si>
     <t>ТАМБУР ГЛ.ВХОД</t>
   </si>
@@ -357,16 +357,13 @@
   </si>
   <si>
     <t>Включение системы дымоудаления 2 этаж</t>
-  </si>
-  <si>
-    <t>TODO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -410,6 +407,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -454,18 +457,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,6 +465,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -755,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -769,13 +773,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1235,22 +1239,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1579,7 +1583,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A13" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1588,7 +1592,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1597,7 +1601,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1606,7 +1610,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1615,7 +1619,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1624,7 +1628,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1633,7 +1637,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1642,7 +1646,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1651,7 +1655,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1660,7 +1664,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1669,7 +1673,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1685,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1725,9 +1729,7 @@
       <c r="B4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1737,9 +1739,7 @@
       <c r="B5" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="C5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
